--- a/data/trans_bre/P7C_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P7C_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,32 +636,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>152,27%</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>178,79%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -656,6 +672,16 @@
       <c r="J4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15,6%</t>
         </is>
       </c>
     </row>
@@ -668,27 +694,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 8,31</t>
+          <t>0,0; 13,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 8,31</t>
+          <t>0,0; 12,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 11,03</t>
+          <t>0,0; 14,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 10,33</t>
+          <t>0,0; 15,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,5; 8,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -702,6 +728,16 @@
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,62</t>
+          <t>12,06</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25,29</t>
+          <t>12,55</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,64</t>
+          <t>14,24</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23,61</t>
+          <t>12,8</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>79,31%</t>
+          <t>-8,71</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>85,29%</t>
+          <t>35,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>90,6%</t>
+          <t>37,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>80,7%</t>
+          <t>45,16%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>40,39%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-14,23%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 39,39</t>
+          <t>-16,86; 33,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,8; 41,01</t>
+          <t>-15,8; 34,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,7; 40,54</t>
+          <t>-11,93; 35,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 39,45</t>
+          <t>-13,9; 34,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 209,14</t>
+          <t>-38,39; 16,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 216,07</t>
+          <t>-33,32; 178,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,0; 223,71</t>
+          <t>-33,7; 192,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 218,13</t>
+          <t>-29,27; 200,69</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-31,11; 208,41</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-50,5; 43,51</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,28</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,06%</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,1%</t>
+          <t>-4,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-6,74%</t>
+          <t>-3,22%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-9,08%</t>
+          <t>-4,5%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-3,87%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>11,04%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 10,49</t>
+          <t>-18,76; 13,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,72; 10,0</t>
+          <t>-17,44; 14,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 10,19</t>
+          <t>-18,55; 12,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,06; 10,37</t>
+          <t>-17,88; 15,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,88; 31,52</t>
+          <t>-11,45; 20,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,06; 30,38</t>
+          <t>-34,45; 42,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-33,88; 33,13</t>
+          <t>-32,53; 45,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,84; 32,21</t>
+          <t>-33,52; 36,55</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-33,71; 45,99</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-19,88; 57,89</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>-5,55</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-43,69%</t>
+          <t>-8,27</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-37,98%</t>
+          <t>-53,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-22,16%</t>
+          <t>-44,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-20,32%</t>
+          <t>-35,75%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-34,74%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-42,99%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 1,92</t>
+          <t>-13,74; 1,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 2,51</t>
+          <t>-11,8; 3,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 3,21</t>
+          <t>-11,3; 4,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 3,31</t>
+          <t>-11,23; 4,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-81,35; 69,0</t>
+          <t>-19,94; 1,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,28; 85,72</t>
+          <t>-88,56; 46,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-75,28; 127,7</t>
+          <t>-85,65; 103,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-74,38; 140,82</t>
+          <t>-82,2; 111,46</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-82,01; 117,78</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-72,55; 18,6</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>8,97</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>202,29%</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>133,27%</t>
+          <t>667,56%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>276,6%</t>
+          <t>461,76%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>381,92%</t>
+          <t>349,27%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>254,81%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>104,97%</t>
         </is>
       </c>
     </row>
@@ -1068,27 +1174,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 9,51</t>
+          <t>2,47; 20,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 7,86</t>
+          <t>0,6; 16,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 7,95</t>
+          <t>-0,63; 14,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 9,72</t>
+          <t>-1,58; 13,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 15,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1102,6 +1208,16 @@
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1135,27 +1251,37 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>12,8</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1183,12 +1309,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 0,0</t>
+          <t>-15,46; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 47,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1202,6 +1328,16 @@
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>27,21%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>27,76%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>21,02%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-5,32%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 7,32</t>
+          <t>-4,94; 9,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 7,74</t>
+          <t>-4,7; 10,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 8,58</t>
+          <t>-3,33; 10,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 7,66</t>
+          <t>-4,44; 9,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 58,64</t>
+          <t>-14,87; 8,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 62,62</t>
+          <t>-25,23; 67,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 74,27</t>
+          <t>-22,94; 78,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 65,3</t>
+          <t>-16,88; 85,41</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-21,04; 80,64</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-42,05; 39,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
